--- a/data/trans_bre/P48_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-20,55%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-20,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-10,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 13,53</t>
+          <t>-7,11; 13,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 12,9</t>
+          <t>-10,88; 12,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 4,33</t>
+          <t>-18,77; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 10,02</t>
+          <t>-12,73; 10,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 63,1</t>
+          <t>-18,14; 9,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 55,62</t>
+          <t>-22,98; 61,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 15,84</t>
+          <t>-31,54; 53,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 43,35</t>
+          <t>-45,57; 12,54</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-34,15; 48,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-36,71; 27,91</t>
         </is>
       </c>
     </row>
@@ -725,37 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 13,03</t>
+          <t>-6,46; 12,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 16,56</t>
+          <t>-8,83; 14,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 14,06</t>
+          <t>-5,77; 14,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 13,28</t>
+          <t>-6,29; 13,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 60,95</t>
+          <t>-2,99; 24,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 88,87</t>
+          <t>-19,99; 61,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 58,77</t>
+          <t>-27,45; 76,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 50,5</t>
+          <t>-15,42; 57,61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,59; 51,89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 92,27</t>
         </is>
       </c>
     </row>
@@ -825,37 +881,47 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-7,22%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-19,41%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 5,43</t>
+          <t>-12,06; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 3,2</t>
+          <t>-21,93; 0,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 9,15</t>
+          <t>-7,88; 8,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 8,55</t>
+          <t>-8,99; 7,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 13,49</t>
+          <t>-8,35; 11,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 7,05</t>
+          <t>-23,25; 12,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 25,15</t>
+          <t>-37,93; 1,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 22,76</t>
+          <t>-16,98; 22,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-18,03; 19,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-14,26; 26,8</t>
         </is>
       </c>
     </row>
@@ -925,37 +1001,47 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,29%</t>
+          <t>-17,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 7,82</t>
+          <t>-8,05; 8,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 12,32</t>
+          <t>-7,46; 12,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 1,15</t>
+          <t>-14,08; 1,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -3,26</t>
+          <t>-17,97; -3,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 24,45</t>
+          <t>-10,22; 6,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 41,15</t>
+          <t>-20,27; 26,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 3,08</t>
+          <t>-17,44; 38,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,12; -8,61</t>
+          <t>-32,27; 4,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-38,12; -9,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-22,52; 18,83</t>
         </is>
       </c>
     </row>
@@ -1025,37 +1121,47 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>-0,64%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 8,13</t>
+          <t>-7,2; 8,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 7,54</t>
+          <t>-11,7; 9,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 7,98</t>
+          <t>-8,8; 8,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 8,71</t>
+          <t>-7,33; 9,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 42,04</t>
+          <t>-9,56; 8,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 31,33</t>
+          <t>-27,05; 46,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 32,33</t>
+          <t>-34,84; 41,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 37,71</t>
+          <t>-26,84; 34,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-23,89; 42,04</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-29,35; 37,95</t>
         </is>
       </c>
     </row>
@@ -1125,37 +1241,47 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-10,5</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-30,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-27,25%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-52,32%</t>
+          <t>-25,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-38,54%</t>
+          <t>-49,33%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-38,05%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-43,75%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 1,86</t>
+          <t>-12,05; 0,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 3,52</t>
+          <t>-16,23; 4,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,33; -3,19</t>
+          <t>-21,54; -4,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,93; -0,46</t>
+          <t>-14,04; -0,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,01; 11,91</t>
+          <t>-18,95; -0,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,08; 27,06</t>
+          <t>-54,65; 5,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,44; -17,98</t>
+          <t>-58,46; 34,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,54; -2,08</t>
+          <t>-71,64; -22,86</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-61,08; -2,48</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-64,93; 1,99</t>
         </is>
       </c>
     </row>
@@ -1225,37 +1361,47 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-3,43%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-6,27%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>-12,18%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,65</t>
+          <t>-4,49; 2,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,16</t>
+          <t>-6,81; 2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,65</t>
+          <t>-7,81; -0,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,37</t>
+          <t>-7,5; -0,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 9,46</t>
+          <t>-6,02; 2,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 7,6</t>
+          <t>-13,81; 8,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,84; -1,83</t>
+          <t>-19,64; 7,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 1,24</t>
+          <t>-22,44; -1,24</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; -0,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 8,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
